--- a/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>005777</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>广发科技动力股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>53.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8935</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>001227</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>中邮信息产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>99.35</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.28</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009455</t>
+          <t>005495</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合C</t>
+          <t>创金合信科技成长主题股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>005310</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>广发电子信息传媒产业精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005777</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发科技动力股票</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010236</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发电子信息传媒产业精选股票C</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001227</t>
+          <t>005496</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮信息产业灵活配置混合</t>
+          <t>创金合信科技成长主题股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.47</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>94.34</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.77</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005495</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票A</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005496</t>
+          <t>010236</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票C</t>
+          <t>广发电子信息传媒产业精选股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005310</t>
+          <t>009336</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发电子信息传媒产业精选股票A</t>
+          <t>平安中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>009337</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>平安中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>95.78</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -856,26 +996,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>009455</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -894,15 +1042,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>94.34</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.77</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -917,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1094,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,26 +1124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001227</t>
+          <t>009454</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮信息产业灵活配置混合</t>
+          <t>创金合信汇融一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.83</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -986,26 +1162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009454</t>
+          <t>001227</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合A</t>
+          <t>中邮信息产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1022,17 +1208,21 @@
           <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>65.08</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1208,7 +1209,6 @@
           <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>65.08</t>
@@ -1224,6 +1224,594 @@
       </c>
       <c r="H4" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1817,4 +1818,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2178,4 +2179,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2187,7 +2188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2198,17 +2199,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2218,14 +2239,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2234,14 +2277,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.66</v>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2250,14 +2315,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -2266,13 +2353,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2852,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2863,17 +2864,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2883,14 +2904,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.49</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2899,14 +2942,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2915,14 +2980,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.66</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2931,14 +3018,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.72</v>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2947,13 +3056,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3745,7 +3746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3756,17 +3757,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3776,14 +3797,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8749</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3792,14 +3835,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.49</v>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3808,14 +3873,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3824,14 +3911,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.66</v>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3840,14 +3949,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.72</v>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3856,13 +3987,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002156-通富微电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.63</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.38</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2003,7 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2667,7 +2968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3027,7 +3328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3615,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3778,7 +4079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
